--- a/Mifos Automation Excels/Client/Scenario5-Chaithanyaprod-TR2-ONTIME-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/Scenario5-Chaithanyaprod-TR2-ONTIME-Newcreateloan2.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -665,7 +665,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>2848</v>
+        <v>216</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>29</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>2847</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>2846</v>
+        <v>212</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
